--- a/data/pca/factorExposure/factorExposure_2012-05-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-05-03.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.0200617308653127</v>
+        <v>-0.0191737758985205</v>
       </c>
       <c r="C2">
-        <v>0.0372266555210696</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02943154509233022</v>
+      </c>
+      <c r="D2">
+        <v>-0.001066416995075939</v>
+      </c>
+      <c r="E2">
+        <v>0.02024708105118839</v>
+      </c>
+      <c r="F2">
+        <v>-0.01056788417331696</v>
+      </c>
+      <c r="G2">
+        <v>-0.01076425087412824</v>
+      </c>
+      <c r="H2">
+        <v>-0.04799134592521033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07636632669885175</v>
+        <v>-0.08417182983293756</v>
       </c>
       <c r="C4">
-        <v>0.05596993221649553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.03628642278810346</v>
+      </c>
+      <c r="D4">
+        <v>0.06984443627337181</v>
+      </c>
+      <c r="E4">
+        <v>0.0005005617577439942</v>
+      </c>
+      <c r="F4">
+        <v>-0.02968801041284565</v>
+      </c>
+      <c r="G4">
+        <v>-0.0008455103693171914</v>
+      </c>
+      <c r="H4">
+        <v>0.03734373925968203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1061619329460445</v>
+        <v>-0.1191025006376956</v>
       </c>
       <c r="C6">
-        <v>0.05448603629491307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.03366537728815189</v>
+      </c>
+      <c r="D6">
+        <v>0.01051138994440361</v>
+      </c>
+      <c r="E6">
+        <v>-0.00522398055326746</v>
+      </c>
+      <c r="F6">
+        <v>-0.05909806105482113</v>
+      </c>
+      <c r="G6">
+        <v>-0.01436202035450291</v>
+      </c>
+      <c r="H6">
+        <v>-0.06727060544142215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04960581767937437</v>
+        <v>-0.06051789755347946</v>
       </c>
       <c r="C7">
-        <v>0.02635296609367022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.01803058638179827</v>
+      </c>
+      <c r="D7">
+        <v>0.04326079490593684</v>
+      </c>
+      <c r="E7">
+        <v>0.02101733404868649</v>
+      </c>
+      <c r="F7">
+        <v>-0.03744305249876997</v>
+      </c>
+      <c r="G7">
+        <v>0.03843211538578728</v>
+      </c>
+      <c r="H7">
+        <v>0.02049647039753799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03694690317090123</v>
+        <v>-0.03878032702027252</v>
       </c>
       <c r="C8">
-        <v>0.01179446949272179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.003691078552267175</v>
+      </c>
+      <c r="D8">
+        <v>0.03259469620238349</v>
+      </c>
+      <c r="E8">
+        <v>0.01165592649494775</v>
+      </c>
+      <c r="F8">
+        <v>-0.04362589194184047</v>
+      </c>
+      <c r="G8">
+        <v>-0.03477717066307118</v>
+      </c>
+      <c r="H8">
+        <v>-0.009080849353398646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.0687901310919289</v>
+        <v>-0.07620153724625897</v>
       </c>
       <c r="C9">
-        <v>0.04610217504662892</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02774215134229952</v>
+      </c>
+      <c r="D9">
+        <v>0.06475207350850404</v>
+      </c>
+      <c r="E9">
+        <v>0.02006553523961603</v>
+      </c>
+      <c r="F9">
+        <v>-0.03890378173189853</v>
+      </c>
+      <c r="G9">
+        <v>-0.0046458366796143</v>
+      </c>
+      <c r="H9">
+        <v>0.05305576646772459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03026409724369803</v>
+        <v>-0.03705994954192163</v>
       </c>
       <c r="C10">
-        <v>0.03570941328687715</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.0432833629683636</v>
+      </c>
+      <c r="D10">
+        <v>-0.1705483646827616</v>
+      </c>
+      <c r="E10">
+        <v>0.04373262171125366</v>
+      </c>
+      <c r="F10">
+        <v>-0.04389152281054576</v>
+      </c>
+      <c r="G10">
+        <v>0.04166046260223827</v>
+      </c>
+      <c r="H10">
+        <v>-0.04080874659620441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07047774669511035</v>
+        <v>-0.07493557526478802</v>
       </c>
       <c r="C11">
-        <v>0.04683144760442502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.02694519043571774</v>
+      </c>
+      <c r="D11">
+        <v>0.06399986674931399</v>
+      </c>
+      <c r="E11">
+        <v>-0.01295701894417142</v>
+      </c>
+      <c r="F11">
+        <v>-0.0253956403505299</v>
+      </c>
+      <c r="G11">
+        <v>0.004048018801285353</v>
+      </c>
+      <c r="H11">
+        <v>0.08741336227410822</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05741665168167673</v>
+        <v>-0.0638387402329206</v>
       </c>
       <c r="C12">
-        <v>0.0502576870861771</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03458252410058382</v>
+      </c>
+      <c r="D12">
+        <v>0.04911817098872761</v>
+      </c>
+      <c r="E12">
+        <v>0.007452334784476665</v>
+      </c>
+      <c r="F12">
+        <v>-0.01984353538881332</v>
+      </c>
+      <c r="G12">
+        <v>-0.002040970458662325</v>
+      </c>
+      <c r="H12">
+        <v>0.05291134847420315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06166480642519832</v>
+        <v>-0.06394369707725787</v>
       </c>
       <c r="C13">
-        <v>0.04226948287834073</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.02495647080097346</v>
+      </c>
+      <c r="D13">
+        <v>0.04084055223642901</v>
+      </c>
+      <c r="E13">
+        <v>-0.0006102356314389291</v>
+      </c>
+      <c r="F13">
+        <v>-0.002354254978008055</v>
+      </c>
+      <c r="G13">
+        <v>0.001313691328723221</v>
+      </c>
+      <c r="H13">
+        <v>0.05474944672149574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03158611496731473</v>
+        <v>-0.04026620060525297</v>
       </c>
       <c r="C14">
-        <v>0.03031478217711705</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02609914931547107</v>
+      </c>
+      <c r="D14">
+        <v>0.00674007598905837</v>
+      </c>
+      <c r="E14">
+        <v>0.021801924280074</v>
+      </c>
+      <c r="F14">
+        <v>-0.01776876882340972</v>
+      </c>
+      <c r="G14">
+        <v>-0.01422556376890047</v>
+      </c>
+      <c r="H14">
+        <v>0.05857932401336142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.03897902485694693</v>
+        <v>-0.03953534329915376</v>
       </c>
       <c r="C15">
-        <v>0.01158998345429848</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.003739712443438255</v>
+      </c>
+      <c r="D15">
+        <v>0.005731614581884914</v>
+      </c>
+      <c r="E15">
+        <v>0.0406028732718866</v>
+      </c>
+      <c r="F15">
+        <v>-0.001382205970582433</v>
+      </c>
+      <c r="G15">
+        <v>-0.02603609534727775</v>
+      </c>
+      <c r="H15">
+        <v>0.04813082227204462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.05982733099046693</v>
+        <v>-0.06693471860787775</v>
       </c>
       <c r="C16">
-        <v>0.0415704040362387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02675453103763367</v>
+      </c>
+      <c r="D16">
+        <v>0.06310375607601328</v>
+      </c>
+      <c r="E16">
+        <v>-9.92988537045517e-05</v>
+      </c>
+      <c r="F16">
+        <v>-0.02447770197737431</v>
+      </c>
+      <c r="G16">
+        <v>0.001856686971904165</v>
+      </c>
+      <c r="H16">
+        <v>0.05362935415325514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06466795308268057</v>
+        <v>-0.06359066881841853</v>
       </c>
       <c r="C20">
-        <v>0.03186365637699403</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01260096507736169</v>
+      </c>
+      <c r="D20">
+        <v>0.04946922443469682</v>
+      </c>
+      <c r="E20">
+        <v>0.01729052729080515</v>
+      </c>
+      <c r="F20">
+        <v>-0.02314433811866422</v>
+      </c>
+      <c r="G20">
+        <v>-0.001521469084497721</v>
+      </c>
+      <c r="H20">
+        <v>0.05290445394855847</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02349234990791498</v>
+        <v>-0.0244387942050841</v>
       </c>
       <c r="C21">
-        <v>-0.004169617975617116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.01115892774674913</v>
+      </c>
+      <c r="D21">
+        <v>0.03461919163032445</v>
+      </c>
+      <c r="E21">
+        <v>0.07808964845995087</v>
+      </c>
+      <c r="F21">
+        <v>0.01180198057838665</v>
+      </c>
+      <c r="G21">
+        <v>-0.006141809182751879</v>
+      </c>
+      <c r="H21">
+        <v>-0.03847984720259449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07535756326207246</v>
+        <v>-0.06631064856857082</v>
       </c>
       <c r="C22">
-        <v>0.06245894211992029</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03436920325793085</v>
+      </c>
+      <c r="D22">
+        <v>0.1029155281812863</v>
+      </c>
+      <c r="E22">
+        <v>0.6138403445147692</v>
+      </c>
+      <c r="F22">
+        <v>0.118935757061301</v>
+      </c>
+      <c r="G22">
+        <v>0.03075133778502492</v>
+      </c>
+      <c r="H22">
+        <v>-0.1386966032292004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07632132990620631</v>
+        <v>-0.06685662723982708</v>
       </c>
       <c r="C23">
-        <v>0.06140262387692758</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03310095491710863</v>
+      </c>
+      <c r="D23">
+        <v>0.1036312126693337</v>
+      </c>
+      <c r="E23">
+        <v>0.6129320311657538</v>
+      </c>
+      <c r="F23">
+        <v>0.1180652244278753</v>
+      </c>
+      <c r="G23">
+        <v>0.02911713733342326</v>
+      </c>
+      <c r="H23">
+        <v>-0.1339188369485343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.06917437768709485</v>
+        <v>-0.07704644153802681</v>
       </c>
       <c r="C24">
-        <v>0.05057293678490417</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03263866946174149</v>
+      </c>
+      <c r="D24">
+        <v>0.06171213272746743</v>
+      </c>
+      <c r="E24">
+        <v>0.007660026400671447</v>
+      </c>
+      <c r="F24">
+        <v>-0.03416045224498732</v>
+      </c>
+      <c r="G24">
+        <v>-0.007119701392975034</v>
+      </c>
+      <c r="H24">
+        <v>0.06367704471770781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07018466727625902</v>
+        <v>-0.07523080098263915</v>
       </c>
       <c r="C25">
-        <v>0.05667651429712856</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03739503634456627</v>
+      </c>
+      <c r="D25">
+        <v>0.05639881332954116</v>
+      </c>
+      <c r="E25">
+        <v>0.009521710001627831</v>
+      </c>
+      <c r="F25">
+        <v>-0.02825947687303765</v>
+      </c>
+      <c r="G25">
+        <v>-0.02015566304552978</v>
+      </c>
+      <c r="H25">
+        <v>0.06675710739909696</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04217331067911653</v>
+        <v>-0.04602604232222845</v>
       </c>
       <c r="C26">
-        <v>0.008132218765107991</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.0005334698557557098</v>
+      </c>
+      <c r="D26">
+        <v>0.0262999431698721</v>
+      </c>
+      <c r="E26">
+        <v>0.03784798059317943</v>
+      </c>
+      <c r="F26">
+        <v>-0.02477081050405211</v>
+      </c>
+      <c r="G26">
+        <v>0.003874674247264409</v>
+      </c>
+      <c r="H26">
+        <v>0.06275009653580042</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05916589752538522</v>
+        <v>-0.07336892118579094</v>
       </c>
       <c r="C28">
-        <v>0.07900810452943972</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.08936733323913376</v>
+      </c>
+      <c r="D28">
+        <v>-0.3113107547770312</v>
+      </c>
+      <c r="E28">
+        <v>0.03468690756862371</v>
+      </c>
+      <c r="F28">
+        <v>-0.05762523169649713</v>
+      </c>
+      <c r="G28">
+        <v>-0.02508546083097359</v>
+      </c>
+      <c r="H28">
+        <v>-0.01225932865763984</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04045442692679975</v>
+        <v>-0.04704140605450222</v>
       </c>
       <c r="C29">
-        <v>0.03026914903136417</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02376194362260622</v>
+      </c>
+      <c r="D29">
+        <v>0.007483694533132659</v>
+      </c>
+      <c r="E29">
+        <v>0.04452576825814053</v>
+      </c>
+      <c r="F29">
+        <v>-0.008783395717963216</v>
+      </c>
+      <c r="G29">
+        <v>0.003653088905933077</v>
+      </c>
+      <c r="H29">
+        <v>0.08979079795071568</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1239868994773555</v>
+        <v>-0.1315153777503015</v>
       </c>
       <c r="C30">
-        <v>0.09161472500434005</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.05661543075822955</v>
+      </c>
+      <c r="D30">
+        <v>0.08813589485601282</v>
+      </c>
+      <c r="E30">
+        <v>0.03962511082523208</v>
+      </c>
+      <c r="F30">
+        <v>-0.006240412431680386</v>
+      </c>
+      <c r="G30">
+        <v>-0.0392630281616249</v>
+      </c>
+      <c r="H30">
+        <v>-0.0332551368061428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04119325735288022</v>
+        <v>-0.04578129599862583</v>
       </c>
       <c r="C31">
-        <v>0.01911592837587047</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01012782469013407</v>
+      </c>
+      <c r="D31">
+        <v>0.02490359971669575</v>
+      </c>
+      <c r="E31">
+        <v>0.02349010316764541</v>
+      </c>
+      <c r="F31">
+        <v>-0.01365058938681907</v>
+      </c>
+      <c r="G31">
+        <v>0.01675453904820948</v>
+      </c>
+      <c r="H31">
+        <v>0.07467942194409968</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03430574518446267</v>
+        <v>-0.03632715421625563</v>
       </c>
       <c r="C32">
-        <v>0.02253909475873707</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01555268114015273</v>
+      </c>
+      <c r="D32">
+        <v>0.0171214406493059</v>
+      </c>
+      <c r="E32">
+        <v>0.06739977600968314</v>
+      </c>
+      <c r="F32">
+        <v>-0.0006715140553685841</v>
+      </c>
+      <c r="G32">
+        <v>-0.02966372611062002</v>
+      </c>
+      <c r="H32">
+        <v>0.04216698451711109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.07998638866628913</v>
+        <v>-0.09469640366844571</v>
       </c>
       <c r="C33">
-        <v>0.04270292183650979</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.02605235556535133</v>
+      </c>
+      <c r="D33">
+        <v>0.0571129962923273</v>
+      </c>
+      <c r="E33">
+        <v>0.0143681106911858</v>
+      </c>
+      <c r="F33">
+        <v>-0.007824297206633022</v>
+      </c>
+      <c r="G33">
+        <v>0.01267474072241445</v>
+      </c>
+      <c r="H33">
+        <v>0.07032179364601208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0559880804160982</v>
+        <v>-0.05913254844199256</v>
       </c>
       <c r="C34">
-        <v>0.02879657865426586</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01280825790852136</v>
+      </c>
+      <c r="D34">
+        <v>0.05558386935548233</v>
+      </c>
+      <c r="E34">
+        <v>0.002856738143088912</v>
+      </c>
+      <c r="F34">
+        <v>-0.01587946387612563</v>
+      </c>
+      <c r="G34">
+        <v>-0.008859253364172882</v>
+      </c>
+      <c r="H34">
+        <v>0.05073169304475639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03730858807915716</v>
+        <v>-0.04113285388461331</v>
       </c>
       <c r="C35">
-        <v>0.01005498184995412</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.003081486387975501</v>
+      </c>
+      <c r="D35">
+        <v>0.009208450968330128</v>
+      </c>
+      <c r="E35">
+        <v>0.02206298666261861</v>
+      </c>
+      <c r="F35">
+        <v>0.006122292908358786</v>
+      </c>
+      <c r="G35">
+        <v>0.01067838173913668</v>
+      </c>
+      <c r="H35">
+        <v>0.03628882058374608</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01933380924789566</v>
+        <v>-0.02603536107343764</v>
       </c>
       <c r="C36">
-        <v>0.01661004036619453</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01301952398870635</v>
+      </c>
+      <c r="D36">
+        <v>0.01769389005233048</v>
+      </c>
+      <c r="E36">
+        <v>0.03780161057114177</v>
+      </c>
+      <c r="F36">
+        <v>-0.01895399457365119</v>
+      </c>
+      <c r="G36">
+        <v>0.009597043260884664</v>
+      </c>
+      <c r="H36">
+        <v>0.05258253854408513</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.03878521919787937</v>
+        <v>-0.04276220371058917</v>
       </c>
       <c r="C38">
-        <v>0.003933492348118498</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.00226113849958173</v>
+      </c>
+      <c r="D38">
+        <v>0.01844625266732534</v>
+      </c>
+      <c r="E38">
+        <v>0.05765643972169192</v>
+      </c>
+      <c r="F38">
+        <v>0.007218732018006873</v>
+      </c>
+      <c r="G38">
+        <v>-0.01871791155728197</v>
+      </c>
+      <c r="H38">
+        <v>0.02408671909152342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09266201988560303</v>
+        <v>-0.1030590289135704</v>
       </c>
       <c r="C39">
-        <v>0.07303419023606213</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.04834605925711848</v>
+      </c>
+      <c r="D39">
+        <v>0.07402612954521599</v>
+      </c>
+      <c r="E39">
+        <v>-0.01513260091405492</v>
+      </c>
+      <c r="F39">
+        <v>-0.01099299304025373</v>
+      </c>
+      <c r="G39">
+        <v>-0.02637414481185507</v>
+      </c>
+      <c r="H39">
+        <v>0.05340771759572728</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07458029423846696</v>
+        <v>-0.07209492998726814</v>
       </c>
       <c r="C40">
-        <v>0.04514371673490025</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.02356874367274433</v>
+      </c>
+      <c r="D40">
+        <v>0.004685943702360715</v>
+      </c>
+      <c r="E40">
+        <v>0.01937624074286354</v>
+      </c>
+      <c r="F40">
+        <v>0.05021524532172983</v>
+      </c>
+      <c r="G40">
+        <v>-0.06152234441250932</v>
+      </c>
+      <c r="H40">
+        <v>-0.08597322511019297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04000492392527145</v>
+        <v>-0.04286927889336195</v>
       </c>
       <c r="C41">
-        <v>0.006330486370873517</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.001160907099994577</v>
+      </c>
+      <c r="D41">
+        <v>0.03820405483397799</v>
+      </c>
+      <c r="E41">
+        <v>0.007382336761858129</v>
+      </c>
+      <c r="F41">
+        <v>0.0118198480669</v>
+      </c>
+      <c r="G41">
+        <v>-0.01306104943160646</v>
+      </c>
+      <c r="H41">
+        <v>0.03202333570118041</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04627112864403915</v>
+        <v>-0.05462926393192448</v>
       </c>
       <c r="C43">
-        <v>0.02590440829327022</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.01660524856327757</v>
+      </c>
+      <c r="D43">
+        <v>0.02695689255799217</v>
+      </c>
+      <c r="E43">
+        <v>0.01715850994796889</v>
+      </c>
+      <c r="F43">
+        <v>-0.008762631154434177</v>
+      </c>
+      <c r="G43">
+        <v>0.005825886357550135</v>
+      </c>
+      <c r="H43">
+        <v>0.04777864033961476</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09598511859284271</v>
+        <v>-0.09148842499751939</v>
       </c>
       <c r="C44">
-        <v>0.09832634130709796</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06513846330869152</v>
+      </c>
+      <c r="D44">
+        <v>0.06766284311481918</v>
+      </c>
+      <c r="E44">
+        <v>0.09097611336942252</v>
+      </c>
+      <c r="F44">
+        <v>-0.04694118667835188</v>
+      </c>
+      <c r="G44">
+        <v>-0.03628473485679189</v>
+      </c>
+      <c r="H44">
+        <v>-0.009961223275837913</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02462509665835971</v>
+        <v>-0.03171376114939269</v>
       </c>
       <c r="C46">
-        <v>0.01335119098624923</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.009175978843527471</v>
+      </c>
+      <c r="D46">
+        <v>0.03402583774011199</v>
+      </c>
+      <c r="E46">
+        <v>0.02007177763024227</v>
+      </c>
+      <c r="F46">
+        <v>-0.01985390146199738</v>
+      </c>
+      <c r="G46">
+        <v>-0.004669725377373288</v>
+      </c>
+      <c r="H46">
+        <v>0.03759106636453327</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.02656625930733196</v>
+        <v>-0.03396880166443703</v>
       </c>
       <c r="C47">
-        <v>0.02562915629804544</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01939504198891478</v>
+      </c>
+      <c r="D47">
+        <v>0.02027474320101917</v>
+      </c>
+      <c r="E47">
+        <v>0.04621711070961435</v>
+      </c>
+      <c r="F47">
+        <v>-0.01526121370751899</v>
+      </c>
+      <c r="G47">
+        <v>0.03976986847467012</v>
+      </c>
+      <c r="H47">
+        <v>0.02998932212601616</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03118139615118784</v>
+        <v>-0.03616481251494882</v>
       </c>
       <c r="C48">
-        <v>0.01711919556852959</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.009489203694540288</v>
+      </c>
+      <c r="D48">
+        <v>0.02720530413306098</v>
+      </c>
+      <c r="E48">
+        <v>0.04184579352012863</v>
+      </c>
+      <c r="F48">
+        <v>-0.007328205678168136</v>
+      </c>
+      <c r="G48">
+        <v>-0.01219045366118749</v>
+      </c>
+      <c r="H48">
+        <v>0.05823285432375007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.163891939177734</v>
+        <v>-0.190445196343809</v>
       </c>
       <c r="C49">
-        <v>0.06804540954738468</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.0390660539549725</v>
+      </c>
+      <c r="D49">
+        <v>0.02072914663823347</v>
+      </c>
+      <c r="E49">
+        <v>-0.1306543297010588</v>
+      </c>
+      <c r="F49">
+        <v>-0.04268353298830977</v>
+      </c>
+      <c r="G49">
+        <v>0.06750407083685239</v>
+      </c>
+      <c r="H49">
+        <v>-0.2305573162939905</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03795654176756631</v>
+        <v>-0.0446895798647842</v>
       </c>
       <c r="C50">
-        <v>0.02286926035583401</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01570578864822829</v>
+      </c>
+      <c r="D50">
+        <v>0.03623829262515042</v>
+      </c>
+      <c r="E50">
+        <v>0.04780582401150991</v>
+      </c>
+      <c r="F50">
+        <v>-0.02281817005341438</v>
+      </c>
+      <c r="G50">
+        <v>0.01203482020039935</v>
+      </c>
+      <c r="H50">
+        <v>0.07198833309113992</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02538143812201069</v>
+        <v>-0.0266614211494162</v>
       </c>
       <c r="C51">
-        <v>0.009926166019193081</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.005411942378595582</v>
+      </c>
+      <c r="D51">
+        <v>0.02198344370576508</v>
+      </c>
+      <c r="E51">
+        <v>0.0137777867392015</v>
+      </c>
+      <c r="F51">
+        <v>-0.009683526227988853</v>
+      </c>
+      <c r="G51">
+        <v>-0.001203909445995608</v>
+      </c>
+      <c r="H51">
+        <v>-0.002937771405536731</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1485636906287719</v>
+        <v>-0.1615972302590292</v>
       </c>
       <c r="C53">
-        <v>0.07873834439980816</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.05201057139718768</v>
+      </c>
+      <c r="D53">
+        <v>0.02154416858123625</v>
+      </c>
+      <c r="E53">
+        <v>-0.03522303429535804</v>
+      </c>
+      <c r="F53">
+        <v>-0.01488220184796108</v>
+      </c>
+      <c r="G53">
+        <v>-0.003190067109934276</v>
+      </c>
+      <c r="H53">
+        <v>0.1564333101760311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05444045122665996</v>
+        <v>-0.05644052093312757</v>
       </c>
       <c r="C54">
-        <v>0.02492710181360589</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01263075671305658</v>
+      </c>
+      <c r="D54">
+        <v>0.02193442350250891</v>
+      </c>
+      <c r="E54">
+        <v>0.04920604427679297</v>
+      </c>
+      <c r="F54">
+        <v>-0.0131233144013003</v>
+      </c>
+      <c r="G54">
+        <v>-0.01740233870880365</v>
+      </c>
+      <c r="H54">
+        <v>0.06130569939817891</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09825543505069077</v>
+        <v>-0.1015116584265553</v>
       </c>
       <c r="C55">
-        <v>0.05599172370864823</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.03555125087236827</v>
+      </c>
+      <c r="D55">
+        <v>0.02793007055274143</v>
+      </c>
+      <c r="E55">
+        <v>0.008715317312652507</v>
+      </c>
+      <c r="F55">
+        <v>-0.01741453212613403</v>
+      </c>
+      <c r="G55">
+        <v>-0.01259626540605156</v>
+      </c>
+      <c r="H55">
+        <v>0.1454358658999148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1470046716871471</v>
+        <v>-0.161260878542639</v>
       </c>
       <c r="C56">
-        <v>0.09371015826135538</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.06446094550585181</v>
+      </c>
+      <c r="D56">
+        <v>0.02101268564825233</v>
+      </c>
+      <c r="E56">
+        <v>-0.0366652280274854</v>
+      </c>
+      <c r="F56">
+        <v>-0.03332847483604679</v>
+      </c>
+      <c r="G56">
+        <v>0.00638101454377238</v>
+      </c>
+      <c r="H56">
+        <v>0.1623611611279716</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1219484753293699</v>
+        <v>-0.09858469901425974</v>
       </c>
       <c r="C58">
-        <v>0.007623869518227076</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.03305029536728257</v>
+      </c>
+      <c r="D58">
+        <v>0.0487455346543351</v>
+      </c>
+      <c r="E58">
+        <v>0.1810857809480247</v>
+      </c>
+      <c r="F58">
+        <v>-0.02122039985113594</v>
+      </c>
+      <c r="G58">
+        <v>0.04297941519369539</v>
+      </c>
+      <c r="H58">
+        <v>-0.1755740253367378</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1186211108867523</v>
+        <v>-0.1441579814722062</v>
       </c>
       <c r="C59">
-        <v>0.08015602958000731</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.0896511207833591</v>
+      </c>
+      <c r="D59">
+        <v>-0.3589956732257742</v>
+      </c>
+      <c r="E59">
+        <v>0.04718091594197827</v>
+      </c>
+      <c r="F59">
+        <v>-0.008103382441138137</v>
+      </c>
+      <c r="G59">
+        <v>0.04153841724806442</v>
+      </c>
+      <c r="H59">
+        <v>-0.001583895921822236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1998418399017705</v>
+        <v>-0.2272994529664475</v>
       </c>
       <c r="C60">
-        <v>0.1031648751128752</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.06812239030674765</v>
+      </c>
+      <c r="D60">
+        <v>0.02873360739383814</v>
+      </c>
+      <c r="E60">
+        <v>-0.07398709514761662</v>
+      </c>
+      <c r="F60">
+        <v>-0.04840647859382033</v>
+      </c>
+      <c r="G60">
+        <v>-0.01480323675530369</v>
+      </c>
+      <c r="H60">
+        <v>-0.1556759344262911</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07911218429553542</v>
+        <v>-0.08719442241060267</v>
       </c>
       <c r="C61">
-        <v>0.05064112562311235</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03286520841701679</v>
+      </c>
+      <c r="D61">
+        <v>0.05215232786860238</v>
+      </c>
+      <c r="E61">
+        <v>-0.01280875471277837</v>
+      </c>
+      <c r="F61">
+        <v>-0.0078917627248015</v>
+      </c>
+      <c r="G61">
+        <v>0.004171595936207308</v>
+      </c>
+      <c r="H61">
+        <v>0.06704705590099407</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1271094020105724</v>
+        <v>-0.1397408302435335</v>
       </c>
       <c r="C62">
-        <v>0.06940553321089683</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.044694247190032</v>
+      </c>
+      <c r="D62">
+        <v>0.0273263629000059</v>
+      </c>
+      <c r="E62">
+        <v>-0.05450961484199096</v>
+      </c>
+      <c r="F62">
+        <v>-0.008969044512456429</v>
+      </c>
+      <c r="G62">
+        <v>-0.03712872487255205</v>
+      </c>
+      <c r="H62">
+        <v>0.1597623526119154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05403717339390349</v>
+        <v>-0.05234169909454993</v>
       </c>
       <c r="C63">
-        <v>0.02817022331630568</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.0142104045274264</v>
+      </c>
+      <c r="D63">
+        <v>0.02545270374533655</v>
+      </c>
+      <c r="E63">
+        <v>0.05060287261446806</v>
+      </c>
+      <c r="F63">
+        <v>-0.004668518608946069</v>
+      </c>
+      <c r="G63">
+        <v>-0.03902011519003053</v>
+      </c>
+      <c r="H63">
+        <v>0.07604492582833786</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1105775755285974</v>
+        <v>-0.1124341758741247</v>
       </c>
       <c r="C64">
-        <v>0.02699190379508183</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.002864473553378542</v>
+      </c>
+      <c r="D64">
+        <v>0.04316017264297772</v>
+      </c>
+      <c r="E64">
+        <v>0.02526535936565712</v>
+      </c>
+      <c r="F64">
+        <v>-0.05111395156721492</v>
+      </c>
+      <c r="G64">
+        <v>-0.03486309792533846</v>
+      </c>
+      <c r="H64">
+        <v>0.07428988313483001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1201064844612015</v>
+        <v>-0.127421514631288</v>
       </c>
       <c r="C65">
-        <v>0.05750929621044535</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.035073947634457</v>
+      </c>
+      <c r="D65">
+        <v>0.004350606436017568</v>
+      </c>
+      <c r="E65">
+        <v>-0.0009405789697830258</v>
+      </c>
+      <c r="F65">
+        <v>-0.06667863472341842</v>
+      </c>
+      <c r="G65">
+        <v>-0.03556102753056165</v>
+      </c>
+      <c r="H65">
+        <v>-0.07651143101596261</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1414392335692949</v>
+        <v>-0.1555461317998395</v>
       </c>
       <c r="C66">
-        <v>0.07854115973251458</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.04556457250110332</v>
+      </c>
+      <c r="D66">
+        <v>0.112442464878217</v>
+      </c>
+      <c r="E66">
+        <v>-0.05167600698549006</v>
+      </c>
+      <c r="F66">
+        <v>-0.02074560138922741</v>
+      </c>
+      <c r="G66">
+        <v>-0.03187961070408222</v>
+      </c>
+      <c r="H66">
+        <v>0.1207171502214717</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07122576635694407</v>
+        <v>-0.0805257832654193</v>
       </c>
       <c r="C67">
-        <v>0.01549013224813165</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.004652847180509875</v>
+      </c>
+      <c r="D67">
+        <v>0.02986236065590555</v>
+      </c>
+      <c r="E67">
+        <v>0.02636091506039523</v>
+      </c>
+      <c r="F67">
+        <v>-0.01265108422811772</v>
+      </c>
+      <c r="G67">
+        <v>0.00409194469401721</v>
+      </c>
+      <c r="H67">
+        <v>0.02103755784006242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0605069399291155</v>
+        <v>-0.06503078679271843</v>
       </c>
       <c r="C68">
-        <v>0.05129692718842369</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.05804950153411188</v>
+      </c>
+      <c r="D68">
+        <v>-0.2635013272588199</v>
+      </c>
+      <c r="E68">
+        <v>0.04959032241546158</v>
+      </c>
+      <c r="F68">
+        <v>-0.01522338165573571</v>
+      </c>
+      <c r="G68">
+        <v>0.01304531739847723</v>
+      </c>
+      <c r="H68">
+        <v>0.02104935212922307</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0509689202740931</v>
+        <v>-0.05101953379838875</v>
       </c>
       <c r="C69">
-        <v>0.01950798217405051</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.005638006797983837</v>
+      </c>
+      <c r="D69">
+        <v>0.02103512811843914</v>
+      </c>
+      <c r="E69">
+        <v>0.02513339900570419</v>
+      </c>
+      <c r="F69">
+        <v>0.004276145145818968</v>
+      </c>
+      <c r="G69">
+        <v>0.01225090127609521</v>
+      </c>
+      <c r="H69">
+        <v>0.05775785615968944</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.004752006709148371</v>
+        <v>-0.02462134629584977</v>
       </c>
       <c r="C70">
-        <v>-0.004626598369310402</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0004563296376417975</v>
+      </c>
+      <c r="D70">
+        <v>-0.0006118038749545442</v>
+      </c>
+      <c r="E70">
+        <v>-0.02632579188893112</v>
+      </c>
+      <c r="F70">
+        <v>-0.01739797155483909</v>
+      </c>
+      <c r="G70">
+        <v>0.02345080394238237</v>
+      </c>
+      <c r="H70">
+        <v>-0.05676293280607474</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06148831915656215</v>
+        <v>-0.06871397928711458</v>
       </c>
       <c r="C71">
-        <v>0.05029067088608151</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.05995277605817968</v>
+      </c>
+      <c r="D71">
+        <v>-0.291816040502027</v>
+      </c>
+      <c r="E71">
+        <v>0.04481058754290455</v>
+      </c>
+      <c r="F71">
+        <v>-0.04457469532463391</v>
+      </c>
+      <c r="G71">
+        <v>0.005582504320038736</v>
+      </c>
+      <c r="H71">
+        <v>0.01422191899801378</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1398655287535133</v>
+        <v>-0.1534445649524669</v>
       </c>
       <c r="C72">
-        <v>0.06330616248457829</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.03777367002618671</v>
+      </c>
+      <c r="D72">
+        <v>-0.003603007446060674</v>
+      </c>
+      <c r="E72">
+        <v>-0.08829878842883501</v>
+      </c>
+      <c r="F72">
+        <v>0.1714506123470266</v>
+      </c>
+      <c r="G72">
+        <v>-0.1115024646600176</v>
+      </c>
+      <c r="H72">
+        <v>0.01722938757854527</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2626712398710279</v>
+        <v>-0.2832330861744783</v>
       </c>
       <c r="C73">
-        <v>0.1147131098423157</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.05636857837939771</v>
+      </c>
+      <c r="D73">
+        <v>0.09486987296711992</v>
+      </c>
+      <c r="E73">
+        <v>-0.2033368624537116</v>
+      </c>
+      <c r="F73">
+        <v>-0.08156730734195052</v>
+      </c>
+      <c r="G73">
+        <v>0.2127801582391678</v>
+      </c>
+      <c r="H73">
+        <v>-0.5387317877265926</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07831295364976153</v>
+        <v>-0.0905987633200709</v>
       </c>
       <c r="C74">
-        <v>0.07787203877313474</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.05965205214888707</v>
+      </c>
+      <c r="D74">
+        <v>0.03105490056807326</v>
+      </c>
+      <c r="E74">
+        <v>-0.006883873311369634</v>
+      </c>
+      <c r="F74">
+        <v>0.01252604948060415</v>
+      </c>
+      <c r="G74">
+        <v>0.03171137316212388</v>
+      </c>
+      <c r="H74">
+        <v>0.126361943674119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09564544938807408</v>
+        <v>-0.1026986254287514</v>
       </c>
       <c r="C75">
-        <v>0.05183279221940774</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02735827420152689</v>
+      </c>
+      <c r="D75">
+        <v>0.01333518301025488</v>
+      </c>
+      <c r="E75">
+        <v>0.003174953685074769</v>
+      </c>
+      <c r="F75">
+        <v>-0.04410724811016357</v>
+      </c>
+      <c r="G75">
+        <v>0.01270170953944067</v>
+      </c>
+      <c r="H75">
+        <v>0.1220439872626958</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.127084907366413</v>
+        <v>-0.1370596393355782</v>
       </c>
       <c r="C76">
-        <v>0.08466351486705015</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.05541174325730253</v>
+      </c>
+      <c r="D76">
+        <v>0.05621082001165564</v>
+      </c>
+      <c r="E76">
+        <v>0.01340587368420745</v>
+      </c>
+      <c r="F76">
+        <v>-0.05683228117349829</v>
+      </c>
+      <c r="G76">
+        <v>-0.001369483298365115</v>
+      </c>
+      <c r="H76">
+        <v>0.1622707032158633</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1251431364634374</v>
+        <v>-0.1165431048387882</v>
       </c>
       <c r="C77">
-        <v>0.03924720264975413</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.004432156793302259</v>
+      </c>
+      <c r="D77">
+        <v>0.02242235211614471</v>
+      </c>
+      <c r="E77">
+        <v>-0.02756923998517015</v>
+      </c>
+      <c r="F77">
+        <v>-0.2077427764127997</v>
+      </c>
+      <c r="G77">
+        <v>-0.876024385947782</v>
+      </c>
+      <c r="H77">
+        <v>-0.2025630432501759</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.09314148236680297</v>
+        <v>-0.1249039553612459</v>
       </c>
       <c r="C78">
-        <v>0.04221956092520833</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03064482506388026</v>
+      </c>
+      <c r="D78">
+        <v>0.09322578519709285</v>
+      </c>
+      <c r="E78">
+        <v>0.0593746430602933</v>
+      </c>
+      <c r="F78">
+        <v>-0.01945962266377106</v>
+      </c>
+      <c r="G78">
+        <v>-0.0387819873083077</v>
+      </c>
+      <c r="H78">
+        <v>-0.09811263106528494</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1456846455456362</v>
+        <v>-0.1519584539839485</v>
       </c>
       <c r="C79">
-        <v>0.08651433055245406</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.04976838746285529</v>
+      </c>
+      <c r="D79">
+        <v>0.03091478441590014</v>
+      </c>
+      <c r="E79">
+        <v>-0.02088270987859508</v>
+      </c>
+      <c r="F79">
+        <v>-0.01246839605925287</v>
+      </c>
+      <c r="G79">
+        <v>0.01430711291179539</v>
+      </c>
+      <c r="H79">
+        <v>0.163664586260519</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.0423335817602164</v>
+        <v>-0.04256298149374153</v>
       </c>
       <c r="C80">
-        <v>0.01577020843929211</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.005565341996649039</v>
+      </c>
+      <c r="D80">
+        <v>0.02643139131193845</v>
+      </c>
+      <c r="E80">
+        <v>-0.004780736349167646</v>
+      </c>
+      <c r="F80">
+        <v>0.0155435433194844</v>
+      </c>
+      <c r="G80">
+        <v>0.03743827508612982</v>
+      </c>
+      <c r="H80">
+        <v>0.03516056581576308</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1182916767620425</v>
+        <v>-0.120469647491381</v>
       </c>
       <c r="C81">
-        <v>0.06442691727090727</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03376376965910847</v>
+      </c>
+      <c r="D81">
+        <v>0.02797173996112929</v>
+      </c>
+      <c r="E81">
+        <v>0.001427931402309798</v>
+      </c>
+      <c r="F81">
+        <v>-0.02147021366912955</v>
+      </c>
+      <c r="G81">
+        <v>0.0445163367282404</v>
+      </c>
+      <c r="H81">
+        <v>0.185850701976094</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1268891260977342</v>
+        <v>-0.1303476287227699</v>
       </c>
       <c r="C82">
-        <v>0.07350563707818622</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.0446095015941893</v>
+      </c>
+      <c r="D82">
+        <v>0.03244375913267781</v>
+      </c>
+      <c r="E82">
+        <v>-0.01577118983458303</v>
+      </c>
+      <c r="F82">
+        <v>-0.05465870127510748</v>
+      </c>
+      <c r="G82">
+        <v>0.04447396264227418</v>
+      </c>
+      <c r="H82">
+        <v>0.1857052438214723</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07652579386401011</v>
+        <v>-0.07974812942270831</v>
       </c>
       <c r="C83">
-        <v>-0.0001507271235513286</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.0183310851922869</v>
+      </c>
+      <c r="D83">
+        <v>0.03944425030171562</v>
+      </c>
+      <c r="E83">
+        <v>0.01042439873532888</v>
+      </c>
+      <c r="F83">
+        <v>-0.05178378554270285</v>
+      </c>
+      <c r="G83">
+        <v>0.08234033267698705</v>
+      </c>
+      <c r="H83">
+        <v>-0.04774901539167553</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02782837492173362</v>
+        <v>-0.03997680425610552</v>
       </c>
       <c r="C84">
-        <v>0.02328081060082091</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01894537929566641</v>
+      </c>
+      <c r="D84">
+        <v>0.03803640253273328</v>
+      </c>
+      <c r="E84">
+        <v>0.02263857139874106</v>
+      </c>
+      <c r="F84">
+        <v>0.0483758297245852</v>
+      </c>
+      <c r="G84">
+        <v>0.06148064977339357</v>
+      </c>
+      <c r="H84">
+        <v>0.01910236623175707</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1201072841607054</v>
+        <v>-0.12044961478131</v>
       </c>
       <c r="C85">
-        <v>0.06178508325836402</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03088341574118821</v>
+      </c>
+      <c r="D85">
+        <v>0.03105009595464496</v>
+      </c>
+      <c r="E85">
+        <v>0.001417230292743833</v>
+      </c>
+      <c r="F85">
+        <v>-0.05122915895219999</v>
+      </c>
+      <c r="G85">
+        <v>0.0140782524119811</v>
+      </c>
+      <c r="H85">
+        <v>0.1553823901567715</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.04964807348926498</v>
+        <v>-0.05449369365329535</v>
       </c>
       <c r="C86">
-        <v>0.029071834045548</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01697579052225322</v>
+      </c>
+      <c r="D86">
+        <v>0.02711628011138785</v>
+      </c>
+      <c r="E86">
+        <v>0.04771790572755157</v>
+      </c>
+      <c r="F86">
+        <v>-0.02364529426253674</v>
+      </c>
+      <c r="G86">
+        <v>0.01278150068793217</v>
+      </c>
+      <c r="H86">
+        <v>0.01392577033502451</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1212636701660786</v>
+        <v>-0.1204678235062948</v>
       </c>
       <c r="C87">
-        <v>0.07306954663154887</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.03669782805267563</v>
+      </c>
+      <c r="D87">
+        <v>0.07314821704801318</v>
+      </c>
+      <c r="E87">
+        <v>0.01482851509734491</v>
+      </c>
+      <c r="F87">
+        <v>-0.0107739058525894</v>
+      </c>
+      <c r="G87">
+        <v>-0.1073313373843733</v>
+      </c>
+      <c r="H87">
+        <v>-0.01199824116940065</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05426125727666012</v>
+        <v>-0.05981576129121396</v>
       </c>
       <c r="C88">
-        <v>0.03138361010173227</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.01997799420711326</v>
+      </c>
+      <c r="D88">
+        <v>0.02663563222050911</v>
+      </c>
+      <c r="E88">
+        <v>0.01510741293252668</v>
+      </c>
+      <c r="F88">
+        <v>-0.007756324846631115</v>
+      </c>
+      <c r="G88">
+        <v>-0.01159067636358792</v>
+      </c>
+      <c r="H88">
+        <v>0.05789501164581763</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08655470140552707</v>
+        <v>-0.1032568063431354</v>
       </c>
       <c r="C89">
-        <v>0.06637187516040918</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07896485044470074</v>
+      </c>
+      <c r="D89">
+        <v>-0.3304889491281707</v>
+      </c>
+      <c r="E89">
+        <v>0.07912201267681065</v>
+      </c>
+      <c r="F89">
+        <v>-0.08229041406184723</v>
+      </c>
+      <c r="G89">
+        <v>0.02224573784143901</v>
+      </c>
+      <c r="H89">
+        <v>-0.001552056464094684</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07389195958462388</v>
+        <v>-0.08478458230109995</v>
       </c>
       <c r="C90">
-        <v>0.05876871657583321</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06794081206989283</v>
+      </c>
+      <c r="D90">
+        <v>-0.3030510485803211</v>
+      </c>
+      <c r="E90">
+        <v>0.06517579919127396</v>
+      </c>
+      <c r="F90">
+        <v>-0.01023174253787612</v>
+      </c>
+      <c r="G90">
+        <v>0.003924624968452094</v>
+      </c>
+      <c r="H90">
+        <v>0.01004652794033215</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08364748617552104</v>
+        <v>-0.0881508250076323</v>
       </c>
       <c r="C91">
-        <v>0.05505248242022089</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.03289265916581269</v>
+      </c>
+      <c r="D91">
+        <v>0.03323715986237429</v>
+      </c>
+      <c r="E91">
+        <v>0.01328020785482538</v>
+      </c>
+      <c r="F91">
+        <v>-0.006536480451518123</v>
+      </c>
+      <c r="G91">
+        <v>0.04658342712423143</v>
+      </c>
+      <c r="H91">
+        <v>0.0765679794478852</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.08106728707158879</v>
+        <v>-0.09348816742152445</v>
       </c>
       <c r="C92">
-        <v>0.07839791727869623</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.08804089775761012</v>
+      </c>
+      <c r="D92">
+        <v>-0.337818743390419</v>
+      </c>
+      <c r="E92">
+        <v>0.05538820765907575</v>
+      </c>
+      <c r="F92">
+        <v>-0.04040369029864623</v>
+      </c>
+      <c r="G92">
+        <v>-0.004299488297290572</v>
+      </c>
+      <c r="H92">
+        <v>0.01375074204560657</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.0679383041942991</v>
+        <v>-0.08447287857827791</v>
       </c>
       <c r="C93">
-        <v>0.0644725886964047</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.07804837952922307</v>
+      </c>
+      <c r="D93">
+        <v>-0.301820877993082</v>
+      </c>
+      <c r="E93">
+        <v>0.03608143778516878</v>
+      </c>
+      <c r="F93">
+        <v>-0.05043889610099352</v>
+      </c>
+      <c r="G93">
+        <v>-0.004479500101064268</v>
+      </c>
+      <c r="H93">
+        <v>-0.00229567590105645</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1313972772122341</v>
+        <v>-0.1282166562338606</v>
       </c>
       <c r="C94">
-        <v>0.05836921451748164</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02132692207665488</v>
+      </c>
+      <c r="D94">
+        <v>0.04832982075430944</v>
+      </c>
+      <c r="E94">
+        <v>-0.02000049422689569</v>
+      </c>
+      <c r="F94">
+        <v>-0.02401392410912525</v>
+      </c>
+      <c r="G94">
+        <v>0.03860869517060134</v>
+      </c>
+      <c r="H94">
+        <v>0.1076491307116582</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.118354973337704</v>
+        <v>-0.1254753809452362</v>
       </c>
       <c r="C95">
-        <v>0.03810471135598102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.009390603536503332</v>
+      </c>
+      <c r="D95">
+        <v>0.05795264527468141</v>
+      </c>
+      <c r="E95">
+        <v>-0.007468811461716787</v>
+      </c>
+      <c r="F95">
+        <v>-0.03817284176252229</v>
+      </c>
+      <c r="G95">
+        <v>0.01033953377724178</v>
+      </c>
+      <c r="H95">
+        <v>-0.01945086727215904</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2054795559869641</v>
+        <v>-0.2170720424200823</v>
       </c>
       <c r="C97">
-        <v>0.04572706078027597</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.009991582992753914</v>
+      </c>
+      <c r="D97">
+        <v>-0.07523797550358235</v>
+      </c>
+      <c r="E97">
+        <v>-0.1482443828491063</v>
+      </c>
+      <c r="F97">
+        <v>0.9015596045430891</v>
+      </c>
+      <c r="G97">
+        <v>-0.1474242238213974</v>
+      </c>
+      <c r="H97">
+        <v>-0.01583530177076226</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2463546739410944</v>
+        <v>-0.2723098748809092</v>
       </c>
       <c r="C98">
-        <v>0.08322465344183466</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.03674978818186774</v>
+      </c>
+      <c r="D98">
+        <v>0.06351484900609823</v>
+      </c>
+      <c r="E98">
+        <v>-0.1570885055642268</v>
+      </c>
+      <c r="F98">
+        <v>-0.04687198688805201</v>
+      </c>
+      <c r="G98">
+        <v>0.2856971432632956</v>
+      </c>
+      <c r="H98">
+        <v>-0.2206372688908044</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4633948656055948</v>
+        <v>-0.2897669924434965</v>
       </c>
       <c r="C99">
-        <v>-0.8715476505057048</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9357158179611447</v>
+      </c>
+      <c r="D99">
+        <v>-0.1262972857693042</v>
+      </c>
+      <c r="E99">
+        <v>0.0511865113915743</v>
+      </c>
+      <c r="F99">
+        <v>-0.05036395044857306</v>
+      </c>
+      <c r="G99">
+        <v>0.01260742841527671</v>
+      </c>
+      <c r="H99">
+        <v>0.05638125854934959</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04051921900055902</v>
+        <v>-0.04713414477349967</v>
       </c>
       <c r="C101">
-        <v>0.03025579363731649</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02383809985338088</v>
+      </c>
+      <c r="D101">
+        <v>0.007979669237640029</v>
+      </c>
+      <c r="E101">
+        <v>0.0437441587397947</v>
+      </c>
+      <c r="F101">
+        <v>-0.008192044730148751</v>
+      </c>
+      <c r="G101">
+        <v>0.003744805486181329</v>
+      </c>
+      <c r="H101">
+        <v>0.08904986975006055</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
